--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -36,7 +36,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день</t>
+    <t>Пени за день, руб</t>
   </si>
   <si>
     <t>Штраф, руб</t>
@@ -208,7 +208,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -536,6 +536,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="4">
       <c r="A4" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -579,6 +580,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -622,6 +624,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="6">
       <c r="A6" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -665,6 +668,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="7">
       <c r="A7" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -708,6 +712,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="8">
       <c r="A8" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -751,6 +756,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="9">
       <c r="A9" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -794,6 +800,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="10">
       <c r="A10" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -837,6 +844,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="11">
       <c r="A11" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -880,6 +888,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="12">
       <c r="A12" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -923,6 +932,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="13">
       <c r="A13" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -966,6 +976,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="14">
       <c r="A14" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1009,6 +1020,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="15">
       <c r="A15" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1052,6 +1064,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="16">
       <c r="A16" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1095,6 +1108,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="17">
       <c r="A17" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1138,6 +1152,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="18">
       <c r="A18" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1181,6 +1196,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="19">
       <c r="A19" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1224,6 +1240,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="20">
       <c r="A20" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1267,6 +1284,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="21">
       <c r="A21" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1310,6 +1328,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="22">
       <c r="A22" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1353,6 +1372,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="23">
       <c r="A23" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1396,6 +1416,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="24">
       <c r="A24" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1439,6 +1460,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="25">
       <c r="A25" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1482,6 +1504,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="26">
       <c r="A26" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1525,6 +1548,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="27">
       <c r="A27" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1568,6 +1592,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="28">
       <c r="A28" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1611,6 +1636,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="29">
       <c r="A29" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1654,6 +1680,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="30">
       <c r="A30" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1697,6 +1724,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="31">
       <c r="A31" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1740,6 +1768,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="32">
       <c r="A32" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1783,6 +1812,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="33">
       <c r="A33" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1826,6 +1856,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="34">
       <c r="A34" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1869,6 +1900,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="35">
       <c r="A35" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1912,6 +1944,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="36">
       <c r="A36" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1955,6 +1988,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="37">
       <c r="A37" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1998,6 +2032,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="38">
       <c r="A38" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -536,7 +536,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="4">
       <c r="A4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -580,7 +579,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -624,7 +622,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="6">
       <c r="A6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -668,7 +665,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="7">
       <c r="A7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -712,7 +708,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="8">
       <c r="A8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -756,7 +751,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="9">
       <c r="A9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -800,7 +794,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="10">
       <c r="A10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -844,7 +837,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="11">
       <c r="A11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -888,7 +880,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="12">
       <c r="A12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -932,7 +923,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="13">
       <c r="A13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -976,7 +966,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="14">
       <c r="A14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1020,7 +1009,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="15">
       <c r="A15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1064,7 +1052,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="16">
       <c r="A16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1108,7 +1095,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="17">
       <c r="A17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1152,7 +1138,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="18">
       <c r="A18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1196,7 +1181,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="19">
       <c r="A19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1240,7 +1224,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="20">
       <c r="A20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1284,7 +1267,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="21">
       <c r="A21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1328,7 +1310,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="22">
       <c r="A22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1372,7 +1353,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="23">
       <c r="A23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1416,7 +1396,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="24">
       <c r="A24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1460,7 +1439,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="25">
       <c r="A25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1504,7 +1482,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="26">
       <c r="A26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1548,7 +1525,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="27">
       <c r="A27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1592,7 +1568,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="28">
       <c r="A28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1636,7 +1611,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="29">
       <c r="A29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1680,7 +1654,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="30">
       <c r="A30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1724,7 +1697,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="31">
       <c r="A31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1768,7 +1740,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="32">
       <c r="A32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1812,7 +1783,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="33">
       <c r="A33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1856,7 +1826,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="34">
       <c r="A34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1900,7 +1869,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="35">
       <c r="A35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1944,7 +1912,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="36">
       <c r="A36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1988,7 +1955,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="37">
       <c r="A37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2032,7 +1998,6 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="38">
       <c r="A38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -1879,7 +1879,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1922,7 +1922,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -1965,7 +1965,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2008,7 +2008,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3*H3</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H3&gt;0, H3*I3, 0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n">
@@ -566,10 +566,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4*H4</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H4&gt;0, H4*I4, 0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
@@ -609,10 +610,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5*H5</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H5&gt;0, H5*I5, 0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="n">
@@ -652,10 +654,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6*H6</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H6&gt;0, H6*I6, 0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
@@ -695,10 +698,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6</f>
         <v>10</v>
       </c>
       <c r="J7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7*H7</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H7&gt;0, H7*I7, 0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n">
@@ -738,10 +742,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7</f>
         <v>10</v>
       </c>
       <c r="J8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8*H8</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H8&gt;0, H8*I8, 0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
@@ -781,10 +786,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8</f>
         <v>10</v>
       </c>
       <c r="J9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9*H9</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H9&gt;0, H9*I9, 0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n">
@@ -824,10 +830,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9</f>
         <v>10</v>
       </c>
       <c r="J10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10*H10</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H10&gt;0, H10*I10, 0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
@@ -867,10 +874,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10</f>
         <v>10</v>
       </c>
       <c r="J11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11*H11</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H11&gt;0, H11*I11, 0)</f>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="n">
@@ -910,10 +918,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11</f>
         <v>10</v>
       </c>
       <c r="J12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12*H12</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H12&gt;0, H12*I12, 0)</f>
         <v>10</v>
       </c>
       <c r="K12" s="2" t="n">
@@ -953,10 +962,11 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12</f>
         <v>10</v>
       </c>
       <c r="J13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13*H13</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H13&gt;0, H13*I13, 0)</f>
         <v>20</v>
       </c>
       <c r="K13" s="2" t="n">
@@ -996,10 +1006,11 @@
         <v>3</v>
       </c>
       <c r="I14" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13</f>
         <v>10</v>
       </c>
       <c r="J14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14*H14</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H14&gt;0, H14*I14, 0)</f>
         <v>30</v>
       </c>
       <c r="K14" s="2" t="n">
@@ -1039,10 +1050,11 @@
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14</f>
         <v>10</v>
       </c>
       <c r="J15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15*H15</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H15&gt;0, H15*I15, 0)</f>
         <v>40</v>
       </c>
       <c r="K15" s="2" t="n">
@@ -1082,10 +1094,11 @@
         <v>5</v>
       </c>
       <c r="I16" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15</f>
         <v>10</v>
       </c>
       <c r="J16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16*H16</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H16&gt;0, H16*I16, 0)</f>
         <v>50</v>
       </c>
       <c r="K16" s="2" t="n">
@@ -1125,10 +1138,11 @@
         <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16</f>
         <v>10</v>
       </c>
       <c r="J17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17*H17</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H17&gt;0, H17*I17, 0)</f>
         <v>60</v>
       </c>
       <c r="K17" s="2" t="n">
@@ -1168,10 +1182,11 @@
         <v>7</v>
       </c>
       <c r="I18" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17</f>
         <v>10</v>
       </c>
       <c r="J18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18*H18</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H18&gt;0, H18*I18, 0)</f>
         <v>70</v>
       </c>
       <c r="K18" s="2" t="n">
@@ -1211,10 +1226,11 @@
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18</f>
         <v>10</v>
       </c>
       <c r="J19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19*H19</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H19&gt;0, H19*I19, 0)</f>
         <v>80</v>
       </c>
       <c r="K19" s="2" t="n">
@@ -1254,10 +1270,11 @@
         <v>9</v>
       </c>
       <c r="I20" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19</f>
         <v>10</v>
       </c>
       <c r="J20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20*H20</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H20&gt;0, H20*I20, 0)</f>
         <v>90</v>
       </c>
       <c r="K20" s="2" t="n">
@@ -1297,10 +1314,11 @@
         <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20</f>
         <v>10</v>
       </c>
       <c r="J21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21*H21</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H21&gt;0, H21*I21, 0)</f>
         <v>100</v>
       </c>
       <c r="K21" s="2" t="n">
@@ -1340,10 +1358,11 @@
         <v>11</v>
       </c>
       <c r="I22" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21</f>
         <v>10</v>
       </c>
       <c r="J22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22*H22</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H22&gt;0, H22*I22, 0)</f>
         <v>110</v>
       </c>
       <c r="K22" s="2" t="n">
@@ -1383,10 +1402,11 @@
         <v>12</v>
       </c>
       <c r="I23" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22</f>
         <v>10</v>
       </c>
       <c r="J23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23*H23</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H23&gt;0, H23*I23, 0)</f>
         <v>120</v>
       </c>
       <c r="K23" s="2" t="n">
@@ -1426,10 +1446,11 @@
         <v>13</v>
       </c>
       <c r="I24" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23</f>
         <v>10</v>
       </c>
       <c r="J24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24*H24</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H24&gt;0, H24*I24, 0)</f>
         <v>130</v>
       </c>
       <c r="K24" s="2" t="n">
@@ -1469,10 +1490,11 @@
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24</f>
         <v>10</v>
       </c>
       <c r="J25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25*H25</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H25&gt;0, H25*I25, 0)</f>
         <v>140</v>
       </c>
       <c r="K25" s="2" t="n">
@@ -1512,10 +1534,11 @@
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25</f>
         <v>10</v>
       </c>
       <c r="J26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26*H26</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H26&gt;0, H26*I26, 0)</f>
         <v>150</v>
       </c>
       <c r="K26" s="2" t="n">
@@ -1555,10 +1578,11 @@
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26</f>
         <v>10</v>
       </c>
       <c r="J27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27*H27</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H27&gt;0, H27*I27, 0)</f>
         <v>160</v>
       </c>
       <c r="K27" s="2" t="n">
@@ -1598,10 +1622,11 @@
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27</f>
         <v>10</v>
       </c>
       <c r="J28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28*H28</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H28&gt;0, H28*I28, 0)</f>
         <v>170</v>
       </c>
       <c r="K28" s="2" t="n">
@@ -1641,10 +1666,11 @@
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28</f>
         <v>10</v>
       </c>
       <c r="J29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29*H29</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H29&gt;0, H29*I29, 0)</f>
         <v>180</v>
       </c>
       <c r="K29" s="2" t="n">
@@ -1684,10 +1710,11 @@
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29</f>
         <v>10</v>
       </c>
       <c r="J30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30*H30</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H30&gt;0, H30*I30, 0)</f>
         <v>190</v>
       </c>
       <c r="K30" s="2" t="n">
@@ -1727,10 +1754,11 @@
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30</f>
         <v>10</v>
       </c>
       <c r="J31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31*H31</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H31&gt;0, H31*I31, 0)</f>
         <v>200</v>
       </c>
       <c r="K31" s="2" t="n">
@@ -1770,10 +1798,11 @@
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31</f>
         <v>10</v>
       </c>
       <c r="J32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32*H32</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H32&gt;0, H32*I32, 0)</f>
         <v>210</v>
       </c>
       <c r="K32" s="2" t="n">
@@ -1813,10 +1842,11 @@
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32</f>
         <v>10</v>
       </c>
       <c r="J33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33*H33</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H33&gt;0, H33*I33, 0)</f>
         <v>220</v>
       </c>
       <c r="K33" s="2" t="n">
@@ -1856,10 +1886,11 @@
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33</f>
         <v>10</v>
       </c>
       <c r="J34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34*H34</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H34&gt;0, H34*I34, 0)</f>
         <v>230</v>
       </c>
       <c r="K34" s="2" t="n">
@@ -1899,10 +1930,11 @@
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34</f>
         <v>10</v>
       </c>
       <c r="J35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35*H35</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H35&gt;0, H35*I35, 0)</f>
         <v>240</v>
       </c>
       <c r="K35" s="2" t="n">
@@ -1942,10 +1974,11 @@
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35</f>
         <v>10</v>
       </c>
       <c r="J36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36*H36</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H36&gt;0, H36*I36, 0)</f>
         <v>250</v>
       </c>
       <c r="K36" s="2" t="n">
@@ -1985,10 +2018,11 @@
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36</f>
         <v>10</v>
       </c>
       <c r="J37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37*H37</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H37&gt;0, H37*I37, 0)</f>
         <v>260</v>
       </c>
       <c r="K37" s="2" t="n">
@@ -2028,10 +2062,11 @@
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37</f>
         <v>10</v>
       </c>
       <c r="J38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I38*H38</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H38&gt;0, H38*I38, 0)</f>
         <v>270</v>
       </c>
       <c r="K38" s="2" t="n">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -18,13 +18,13 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
+    <t>Площадь, кв.м.</t>
   </si>
   <si>
     <t>Тариф</t>
   </si>
   <si>
-    <t>Сумма, руб/кв.м</t>
+    <t>Сумма, руб/кв.м.</t>
   </si>
   <si>
     <t>Срок оплаты</t>
@@ -36,13 +36,13 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день, руб</t>
-  </si>
-  <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
+    <t>Пени за день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
   <si>
     <t>Мохамед</t>
@@ -150,16 +150,16 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма, руб</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб</t>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -21,10 +21,10 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Сумма, руб/кв.м.</t>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
   </si>
   <si>
     <t>Срок оплаты</t>
@@ -36,7 +36,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день, руб.</t>
+    <t>Пени за день</t>
   </si>
   <si>
     <t>Штраф, руб.</t>
@@ -150,7 +150,7 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма, руб.</t>
+    <t>Общая сумма графы "Итого", руб.</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -536,6 +536,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="4">
       <c r="A4" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -580,6 +581,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -624,6 +626,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="6">
       <c r="A6" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -668,6 +671,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="7">
       <c r="A7" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -712,6 +716,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="8">
       <c r="A8" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -756,6 +761,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="9">
       <c r="A9" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -800,6 +806,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="10">
       <c r="A10" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -844,6 +851,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="11">
       <c r="A11" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -888,6 +896,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="12">
       <c r="A12" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -932,6 +941,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="13">
       <c r="A13" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -976,6 +986,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="14">
       <c r="A14" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1020,6 +1031,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="15">
       <c r="A15" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1064,6 +1076,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="16">
       <c r="A16" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1108,6 +1121,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="17">
       <c r="A17" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1152,6 +1166,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="18">
       <c r="A18" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1196,6 +1211,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="19">
       <c r="A19" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1240,6 +1256,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="20">
       <c r="A20" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1284,6 +1301,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="21">
       <c r="A21" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1328,6 +1346,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="22">
       <c r="A22" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1372,6 +1391,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="23">
       <c r="A23" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1416,6 +1436,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="24">
       <c r="A24" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1460,6 +1481,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="25">
       <c r="A25" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1504,6 +1526,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="26">
       <c r="A26" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1548,6 +1571,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="27">
       <c r="A27" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1592,6 +1616,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="28">
       <c r="A28" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1636,6 +1661,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="29">
       <c r="A29" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1680,6 +1706,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="30">
       <c r="A30" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1724,6 +1751,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="31">
       <c r="A31" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1768,6 +1796,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="32">
       <c r="A32" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1812,6 +1841,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="33">
       <c r="A33" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1856,6 +1886,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="34">
       <c r="A34" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1900,6 +1931,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="35">
       <c r="A35" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1944,6 +1976,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="36">
       <c r="A36" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1988,6 +2021,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="37">
       <c r="A37" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2032,6 +2066,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="38">
       <c r="A38" s="2" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -36,7 +36,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день</t>
+    <t>Пени за день, руб.</t>
   </si>
   <si>
     <t>Штраф, руб.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -27,13 +27,13 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
+    <t>Срок оплаты, день.</t>
+  </si>
+  <si>
+    <t>Дата оплаты, день.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней.</t>
   </si>
   <si>
     <t>Пени за день, руб.</t>
@@ -156,7 +156,7 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
+    <t>Максимальный срок просрочки, дней.</t>
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -27,13 +27,13 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты, день.</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день.</t>
-  </si>
-  <si>
-    <t>Просрочка, дней.</t>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
   </si>
   <si>
     <t>Пени за день, руб.</t>
@@ -150,16 +150,16 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -36,10 +36,10 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
+    <t>Пени за день</t>
+  </si>
+  <si>
+    <t>Штраф</t>
   </si>
   <si>
     <t>Итого, руб.</t>
@@ -150,16 +150,16 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
-    <t>средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>максимальная сумма к оплате, руб.</t>
+    <t>Общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -15,7 +15,7 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилии квартиросъемщиков</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>
@@ -36,10 +36,10 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день</t>
-  </si>
-  <si>
-    <t>Штраф</t>
+    <t>Пени за день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
   <si>
     <t>Итого, руб.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -15,7 +15,7 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилии квартиросъемщиков</t>
+    <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>
@@ -555,7 +555,6 @@
         <v>8256.6</v>
       </c>
       <c r="F4" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3" t="n">
@@ -600,7 +599,6 @@
         <v>8197.2</v>
       </c>
       <c r="F5" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3" t="n">
@@ -645,7 +643,6 @@
         <v>8137.8</v>
       </c>
       <c r="F6" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
         <v>44813</v>
       </c>
       <c r="G6" s="3" t="n">
@@ -690,7 +687,6 @@
         <v>8078.4</v>
       </c>
       <c r="F7" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
         <v>44813</v>
       </c>
       <c r="G7" s="3" t="n">
@@ -735,7 +731,6 @@
         <v>8019</v>
       </c>
       <c r="F8" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
         <v>44813</v>
       </c>
       <c r="G8" s="3" t="n">
@@ -780,7 +775,6 @@
         <v>7959.6</v>
       </c>
       <c r="F9" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
         <v>44813</v>
       </c>
       <c r="G9" s="3" t="n">
@@ -825,7 +819,6 @@
         <v>7900.2</v>
       </c>
       <c r="F10" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
         <v>44813</v>
       </c>
       <c r="G10" s="3" t="n">
@@ -870,7 +863,6 @@
         <v>7840.8</v>
       </c>
       <c r="F11" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
         <v>44813</v>
       </c>
       <c r="G11" s="3" t="n">
@@ -915,7 +907,6 @@
         <v>7781.4</v>
       </c>
       <c r="F12" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
         <v>44813</v>
       </c>
       <c r="G12" s="3" t="n">
@@ -960,7 +951,6 @@
         <v>7722</v>
       </c>
       <c r="F13" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
         <v>44813</v>
       </c>
       <c r="G13" s="3" t="n">
@@ -1005,7 +995,6 @@
         <v>7662.6</v>
       </c>
       <c r="F14" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
         <v>44813</v>
       </c>
       <c r="G14" s="3" t="n">
@@ -1050,7 +1039,6 @@
         <v>7603.2</v>
       </c>
       <c r="F15" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
         <v>44813</v>
       </c>
       <c r="G15" s="3" t="n">
@@ -1095,7 +1083,6 @@
         <v>7543.8</v>
       </c>
       <c r="F16" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
         <v>44813</v>
       </c>
       <c r="G16" s="3" t="n">
@@ -1140,7 +1127,6 @@
         <v>7484.4</v>
       </c>
       <c r="F17" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
         <v>44813</v>
       </c>
       <c r="G17" s="3" t="n">
@@ -1185,7 +1171,6 @@
         <v>7425</v>
       </c>
       <c r="F18" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
         <v>44813</v>
       </c>
       <c r="G18" s="3" t="n">
@@ -1230,7 +1215,6 @@
         <v>7365.6</v>
       </c>
       <c r="F19" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
         <v>44813</v>
       </c>
       <c r="G19" s="3" t="n">
@@ -1275,7 +1259,6 @@
         <v>7306.2</v>
       </c>
       <c r="F20" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
         <v>44813</v>
       </c>
       <c r="G20" s="3" t="n">
@@ -1320,7 +1303,6 @@
         <v>7246.8</v>
       </c>
       <c r="F21" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
         <v>44813</v>
       </c>
       <c r="G21" s="3" t="n">
@@ -1365,7 +1347,6 @@
         <v>7187.4</v>
       </c>
       <c r="F22" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
         <v>44813</v>
       </c>
       <c r="G22" s="3" t="n">
@@ -1410,7 +1391,6 @@
         <v>7128</v>
       </c>
       <c r="F23" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
         <v>44813</v>
       </c>
       <c r="G23" s="3" t="n">
@@ -1455,7 +1435,6 @@
         <v>7068.6</v>
       </c>
       <c r="F24" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
         <v>44813</v>
       </c>
       <c r="G24" s="3" t="n">
@@ -1500,7 +1479,6 @@
         <v>7009.2</v>
       </c>
       <c r="F25" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
         <v>44813</v>
       </c>
       <c r="G25" s="3" t="n">
@@ -1545,7 +1523,6 @@
         <v>6949.8</v>
       </c>
       <c r="F26" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
         <v>44813</v>
       </c>
       <c r="G26" s="3" t="n">
@@ -1590,7 +1567,6 @@
         <v>6890.4</v>
       </c>
       <c r="F27" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3" t="n">
@@ -1635,7 +1611,6 @@
         <v>6831</v>
       </c>
       <c r="F28" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
         <v>44813</v>
       </c>
       <c r="G28" s="3" t="n">
@@ -1680,7 +1655,6 @@
         <v>6771.6</v>
       </c>
       <c r="F29" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
         <v>44813</v>
       </c>
       <c r="G29" s="3" t="n">
@@ -1725,7 +1699,6 @@
         <v>6712.2</v>
       </c>
       <c r="F30" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
         <v>44813</v>
       </c>
       <c r="G30" s="3" t="n">
@@ -1770,7 +1743,6 @@
         <v>6652.8</v>
       </c>
       <c r="F31" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
         <v>44813</v>
       </c>
       <c r="G31" s="3" t="n">
@@ -1815,7 +1787,6 @@
         <v>6593.4</v>
       </c>
       <c r="F32" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
         <v>44813</v>
       </c>
       <c r="G32" s="3" t="n">
@@ -1860,7 +1831,6 @@
         <v>6534</v>
       </c>
       <c r="F33" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
         <v>44813</v>
       </c>
       <c r="G33" s="3" t="n">
@@ -1905,7 +1875,6 @@
         <v>6474.6</v>
       </c>
       <c r="F34" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
         <v>44813</v>
       </c>
       <c r="G34" s="3" t="n">
@@ -1950,7 +1919,6 @@
         <v>3207.6</v>
       </c>
       <c r="F35" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
         <v>44813</v>
       </c>
       <c r="G35" s="3" t="n">
@@ -1995,7 +1963,6 @@
         <v>3177.9</v>
       </c>
       <c r="F36" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
         <v>44813</v>
       </c>
       <c r="G36" s="3" t="n">
@@ -2040,7 +2007,6 @@
         <v>3148.2</v>
       </c>
       <c r="F37" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
         <v>44813</v>
       </c>
       <c r="G37" s="3" t="n">
@@ -2085,7 +2051,6 @@
         <v>3118.5</v>
       </c>
       <c r="F38" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
         <v>44813</v>
       </c>
       <c r="G38" s="3" t="n">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -150,16 +150,16 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Общая сумма графы "Итого"</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -150,16 +150,16 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого"</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>Общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -150,16 +150,16 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
+    <t>Общая сумма, руб.</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -156,10 +156,10 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -15,7 +15,7 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -21,7 +21,7 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб./кв.м.</t>
+    <t>Тариф</t>
   </si>
   <si>
     <t>Сумма, руб.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -21,7 +21,7 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф</t>
+    <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
     <t>Сумма, руб.</t>
@@ -36,7 +36,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день, руб.</t>
+    <t>Пени за день</t>
   </si>
   <si>
     <t>Штраф, руб.</t>
@@ -169,7 +169,7 @@
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
@@ -184,6 +184,11 @@
       <name val="Times New Roman"/>
       <color theme="1" tint="0"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color theme="1" tint="0"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
@@ -217,7 +222,10 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2074,6 +2082,9 @@
         <v>3388.5</v>
       </c>
     </row>
+    <row outlineLevel="0" r="39">
+      <c r="I39" s="5" t="n"/>
+    </row>
     <row ht="15.75" outlineLevel="0" r="40">
       <c r="B40" s="2" t="s">
         <v>46</v>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -36,7 +36,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за день</t>
+    <t>Пени за 1 день</t>
   </si>
   <si>
     <t>Штраф, руб.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -36,7 +36,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
+    <t>Пени за 1 день, руб.</t>
   </si>
   <si>
     <t>Штраф, руб.</t>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -45,42 +45,45 @@
     <t>Итого, руб.</t>
   </si>
   <si>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Абдуллина</t>
+  </si>
+  <si>
+    <t>Акмалов</t>
+  </si>
+  <si>
+    <t>Бабкин</t>
+  </si>
+  <si>
+    <t>Бахромов</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Гафеев</t>
+  </si>
+  <si>
+    <t>Городилова</t>
+  </si>
+  <si>
+    <t>Девятов</t>
+  </si>
+  <si>
+    <t>Исламов</t>
+  </si>
+  <si>
+    <t>Карманов</t>
+  </si>
+  <si>
+    <t>Коканов</t>
+  </si>
+  <si>
     <t>Мохамед</t>
   </si>
   <si>
-    <t>Абдуллина</t>
-  </si>
-  <si>
-    <t>Акмалов</t>
-  </si>
-  <si>
-    <t>Бабкин</t>
-  </si>
-  <si>
-    <t>Бахромов</t>
-  </si>
-  <si>
-    <t>Борисов</t>
-  </si>
-  <si>
-    <t>Гафеев</t>
-  </si>
-  <si>
-    <t>Городилова</t>
-  </si>
-  <si>
-    <t>Девятов</t>
-  </si>
-  <si>
-    <t>Исламов</t>
-  </si>
-  <si>
-    <t>Карманов</t>
-  </si>
-  <si>
-    <t>Коканов</t>
-  </si>
-  <si>
     <t>Надеждин</t>
   </si>
   <si>
@@ -114,7 +117,7 @@
     <t>Филатов</t>
   </si>
   <si>
-    <t>Осама</t>
+    <t>Хабк</t>
   </si>
   <si>
     <t>Хазипова</t>
@@ -512,7 +515,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -523,18 +526,17 @@
         <v>44813</v>
       </c>
       <c r="G3" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(2022, 9, 1)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H3&gt;0, H3*I3, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n">
@@ -555,7 +557,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -563,14 +565,14 @@
         <v>8256.6</v>
       </c>
       <c r="F4" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G3), MONTH(G3), DAY(G3)+1)</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F4&gt;=G4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -578,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H4&gt;0, H4*I4, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
@@ -599,7 +601,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -607,14 +609,14 @@
         <v>8197.2</v>
       </c>
       <c r="F5" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G4), MONTH(G4), DAY(G4)+1)</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&lt;=F5, 0, G5-F5)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F5&gt;=G5, 0, G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -622,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H5&gt;0, H5*I5, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="n">
@@ -643,7 +645,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -651,14 +653,14 @@
         <v>8137.8</v>
       </c>
       <c r="F6" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
         <v>44813</v>
       </c>
       <c r="G6" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G5), MONTH(G5), DAY(G5)+1)</f>
         <v>44808</v>
       </c>
       <c r="H6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&lt;=F6, 0, G6-F6)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F6&gt;=G6, 0, G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -666,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H6&gt;0, H6*I6, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H6*I6</f>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
@@ -687,7 +689,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -695,14 +697,14 @@
         <v>8078.4</v>
       </c>
       <c r="F7" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
         <v>44813</v>
       </c>
       <c r="G7" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G6), MONTH(G6), DAY(G6)+1)</f>
         <v>44809</v>
       </c>
       <c r="H7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&lt;=F7, 0, G7-F7)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F7&gt;=G7, 0, G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -710,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H7&gt;0, H7*I7, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H7*I7</f>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n">
@@ -731,7 +733,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -739,14 +741,14 @@
         <v>8019</v>
       </c>
       <c r="F8" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
         <v>44813</v>
       </c>
       <c r="G8" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G7), MONTH(G7), DAY(G7)+1)</f>
         <v>44810</v>
       </c>
       <c r="H8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&lt;=F8, 0, G8-F8)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F8&gt;=G8, 0, G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -754,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H8&gt;0, H8*I8, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*I8</f>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
@@ -775,7 +777,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E9" s="2" t="n">
@@ -783,14 +785,14 @@
         <v>7959.6</v>
       </c>
       <c r="F9" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
         <v>44813</v>
       </c>
       <c r="G9" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G8), MONTH(G8), DAY(G8)+1)</f>
         <v>44811</v>
       </c>
       <c r="H9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;=F9, 0, G9-F9)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F9&gt;=G9, 0, G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -798,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H9&gt;0, H9*I9, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H9*I9</f>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n">
@@ -819,7 +821,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -827,14 +829,14 @@
         <v>7900.2</v>
       </c>
       <c r="F10" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
         <v>44813</v>
       </c>
       <c r="G10" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G9), MONTH(G9), DAY(G9)+1)</f>
         <v>44812</v>
       </c>
       <c r="H10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;=F10, 0, G10-F10)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F10&gt;=G10, 0, G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -842,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H10&gt;0, H10*I10, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*I10</f>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
@@ -863,7 +865,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -871,14 +873,14 @@
         <v>7840.8</v>
       </c>
       <c r="F11" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
         <v>44813</v>
       </c>
       <c r="G11" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G10), MONTH(G10), DAY(G10)+1)</f>
         <v>44813</v>
       </c>
       <c r="H11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;=F11, 0, G11-F11)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F11&gt;=G11, 0, G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -886,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H11&gt;0, H11*I11, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*I11</f>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="n">
@@ -907,7 +909,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -915,14 +917,14 @@
         <v>7781.4</v>
       </c>
       <c r="F12" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
         <v>44813</v>
       </c>
       <c r="G12" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G11), MONTH(G11), DAY(G11)+1)</f>
         <v>44814</v>
       </c>
       <c r="H12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;=F12, 0, G12-F12)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F12&gt;=G12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -930,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H12&gt;0, H12*I12, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*I12</f>
         <v>10</v>
       </c>
       <c r="K12" s="2" t="n">
@@ -951,7 +953,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E13" s="2" t="n">
@@ -959,14 +961,14 @@
         <v>7722</v>
       </c>
       <c r="F13" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
         <v>44813</v>
       </c>
       <c r="G13" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G12), MONTH(G12), DAY(G12)+1)</f>
         <v>44815</v>
       </c>
       <c r="H13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&lt;=F13, 0, G13-F13)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F13&gt;=G13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -974,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H13&gt;0, H13*I13, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*I13</f>
         <v>20</v>
       </c>
       <c r="K13" s="2" t="n">
@@ -995,7 +997,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -1003,14 +1005,14 @@
         <v>7662.6</v>
       </c>
       <c r="F14" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
         <v>44813</v>
       </c>
       <c r="G14" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G13), MONTH(G13), DAY(G13)+1)</f>
         <v>44816</v>
       </c>
       <c r="H14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&lt;=F14, 0, G14-F14)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F14&gt;=G14, 0, G14-F14)</f>
         <v>3</v>
       </c>
       <c r="I14" s="4" t="n">
@@ -1018,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H14&gt;0, H14*I14, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H14*I14</f>
         <v>30</v>
       </c>
       <c r="K14" s="2" t="n">
@@ -1032,14 +1034,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
         <v>64</v>
       </c>
       <c r="D15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E15" s="2" t="n">
@@ -1047,14 +1049,14 @@
         <v>7603.2</v>
       </c>
       <c r="F15" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
         <v>44813</v>
       </c>
       <c r="G15" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G14), MONTH(G14), DAY(G14)+1)</f>
         <v>44817</v>
       </c>
       <c r="H15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&lt;=F15, 0, G15-F15)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F15&gt;=G15, 0, G15-F15)</f>
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
@@ -1062,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H15&gt;0, H15*I15, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*I15</f>
         <v>40</v>
       </c>
       <c r="K15" s="2" t="n">
@@ -1076,14 +1078,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
         <v>63.5</v>
       </c>
       <c r="D16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E16" s="2" t="n">
@@ -1091,14 +1093,14 @@
         <v>7543.8</v>
       </c>
       <c r="F16" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
         <v>44813</v>
       </c>
       <c r="G16" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G15), MONTH(G15), DAY(G15)+1)</f>
         <v>44818</v>
       </c>
       <c r="H16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&lt;=F16, 0, G16-F16)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F16&gt;=G16, 0, G16-F16)</f>
         <v>5</v>
       </c>
       <c r="I16" s="4" t="n">
@@ -1106,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H16&gt;0, H16*I16, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*I16</f>
         <v>50</v>
       </c>
       <c r="K16" s="2" t="n">
@@ -1120,14 +1122,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
         <v>63</v>
       </c>
       <c r="D17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E17" s="2" t="n">
@@ -1135,14 +1137,14 @@
         <v>7484.4</v>
       </c>
       <c r="F17" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
         <v>44813</v>
       </c>
       <c r="G17" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G16), MONTH(G16), DAY(G16)+1)</f>
         <v>44819</v>
       </c>
       <c r="H17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&lt;=F17, 0, G17-F17)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F17&gt;=G17, 0, G17-F17)</f>
         <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
@@ -1150,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H17&gt;0, H17*I17, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*I17</f>
         <v>60</v>
       </c>
       <c r="K17" s="2" t="n">
@@ -1164,14 +1166,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
         <v>62.5</v>
       </c>
       <c r="D18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E18" s="2" t="n">
@@ -1179,14 +1181,14 @@
         <v>7425</v>
       </c>
       <c r="F18" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
         <v>44813</v>
       </c>
       <c r="G18" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G17), MONTH(G17), DAY(G17)+1)</f>
         <v>44820</v>
       </c>
       <c r="H18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&lt;=F18, 0, G18-F18)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F18&gt;=G18, 0, G18-F18)</f>
         <v>7</v>
       </c>
       <c r="I18" s="4" t="n">
@@ -1194,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H18&gt;0, H18*I18, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*I18</f>
         <v>70</v>
       </c>
       <c r="K18" s="2" t="n">
@@ -1208,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
         <v>62</v>
       </c>
       <c r="D19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E19" s="2" t="n">
@@ -1223,14 +1225,14 @@
         <v>7365.6</v>
       </c>
       <c r="F19" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
         <v>44813</v>
       </c>
       <c r="G19" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G18), MONTH(G18), DAY(G18)+1)</f>
         <v>44821</v>
       </c>
       <c r="H19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&lt;=F19, 0, G19-F19)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F19&gt;=G19, 0, G19-F19)</f>
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
@@ -1238,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H19&gt;0, H19*I19, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*I19</f>
         <v>80</v>
       </c>
       <c r="K19" s="2" t="n">
@@ -1252,14 +1254,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
         <v>61.5</v>
       </c>
       <c r="D20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E20" s="2" t="n">
@@ -1267,14 +1269,14 @@
         <v>7306.2</v>
       </c>
       <c r="F20" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
         <v>44813</v>
       </c>
       <c r="G20" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G19), MONTH(G19), DAY(G19)+1)</f>
         <v>44822</v>
       </c>
       <c r="H20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&lt;=F20, 0, G20-F20)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F20&gt;=G20, 0, G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="4" t="n">
@@ -1282,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H20&gt;0, H20*I20, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H20*I20</f>
         <v>90</v>
       </c>
       <c r="K20" s="2" t="n">
@@ -1296,14 +1298,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
         <v>61</v>
       </c>
       <c r="D21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E21" s="2" t="n">
@@ -1311,14 +1313,14 @@
         <v>7246.8</v>
       </c>
       <c r="F21" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
         <v>44813</v>
       </c>
       <c r="G21" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G20), MONTH(G20), DAY(G20)+1)</f>
         <v>44823</v>
       </c>
       <c r="H21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&lt;=F21, 0, G21-F21)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F21&gt;=G21, 0, G21-F21)</f>
         <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
@@ -1326,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H21&gt;0, H21*I21, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H21*I21</f>
         <v>100</v>
       </c>
       <c r="K21" s="2" t="n">
@@ -1340,14 +1342,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
         <v>60.5</v>
       </c>
       <c r="D22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E22" s="2" t="n">
@@ -1355,14 +1357,14 @@
         <v>7187.4</v>
       </c>
       <c r="F22" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
         <v>44813</v>
       </c>
       <c r="G22" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G21), MONTH(G21), DAY(G21)+1)</f>
         <v>44824</v>
       </c>
       <c r="H22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&lt;=F22, 0, G22-F22)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F22&gt;=G22, 0, G22-F22)</f>
         <v>11</v>
       </c>
       <c r="I22" s="4" t="n">
@@ -1370,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H22&gt;0, H22*I22, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H22*I22</f>
         <v>110</v>
       </c>
       <c r="K22" s="2" t="n">
@@ -1384,14 +1386,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
         <v>60</v>
       </c>
       <c r="D23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E23" s="2" t="n">
@@ -1399,14 +1401,14 @@
         <v>7128</v>
       </c>
       <c r="F23" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
         <v>44813</v>
       </c>
       <c r="G23" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G22), MONTH(G22), DAY(G22)+1)</f>
         <v>44825</v>
       </c>
       <c r="H23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&lt;=F23, 0, G23-F23)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F23&gt;=G23, 0, G23-F23)</f>
         <v>12</v>
       </c>
       <c r="I23" s="4" t="n">
@@ -1414,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H23&gt;0, H23*I23, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*I23</f>
         <v>120</v>
       </c>
       <c r="K23" s="2" t="n">
@@ -1428,14 +1430,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
         <v>59.5</v>
       </c>
       <c r="D24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E24" s="2" t="n">
@@ -1443,14 +1445,14 @@
         <v>7068.6</v>
       </c>
       <c r="F24" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
         <v>44813</v>
       </c>
       <c r="G24" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G23), MONTH(G23), DAY(G23)+1)</f>
         <v>44826</v>
       </c>
       <c r="H24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&lt;=F24, 0, G24-F24)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F24&gt;=G24, 0, G24-F24)</f>
         <v>13</v>
       </c>
       <c r="I24" s="4" t="n">
@@ -1458,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H24&gt;0, H24*I24, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*I24</f>
         <v>130</v>
       </c>
       <c r="K24" s="2" t="n">
@@ -1472,14 +1474,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
         <v>59</v>
       </c>
       <c r="D25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E25" s="2" t="n">
@@ -1487,14 +1489,14 @@
         <v>7009.2</v>
       </c>
       <c r="F25" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
         <v>44813</v>
       </c>
       <c r="G25" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G24), MONTH(G24), DAY(G24)+1)</f>
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F25&gt;=G25, 0, G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -1502,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H25&gt;0, H25*I25, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H25*I25</f>
         <v>140</v>
       </c>
       <c r="K25" s="2" t="n">
@@ -1516,14 +1518,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
         <v>58.5</v>
       </c>
       <c r="D26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E26" s="2" t="n">
@@ -1531,14 +1533,14 @@
         <v>6949.8</v>
       </c>
       <c r="F26" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
         <v>44813</v>
       </c>
       <c r="G26" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G25), MONTH(G25), DAY(G25)+1)</f>
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F26&gt;=G26, 0, G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -1546,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H26&gt;0, H26*I26, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H26*I26</f>
         <v>150</v>
       </c>
       <c r="K26" s="2" t="n">
@@ -1560,14 +1562,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E27" s="2" t="n">
@@ -1575,14 +1577,14 @@
         <v>6890.4</v>
       </c>
       <c r="F27" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G26), MONTH(G26), DAY(G26)+1)</f>
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F27&gt;=G27, 0, G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -1590,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H27&gt;0, H27*I27, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H27*I27</f>
         <v>160</v>
       </c>
       <c r="K27" s="2" t="n">
@@ -1604,14 +1606,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
         <v>57.5</v>
       </c>
       <c r="D28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E28" s="2" t="n">
@@ -1619,14 +1621,14 @@
         <v>6831</v>
       </c>
       <c r="F28" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
         <v>44813</v>
       </c>
       <c r="G28" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G27), MONTH(G27), DAY(G27)+1)</f>
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F28&gt;=G28, 0, G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -1634,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H28&gt;0, H28*I28, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H28*I28</f>
         <v>170</v>
       </c>
       <c r="K28" s="2" t="n">
@@ -1648,14 +1650,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
         <v>57</v>
       </c>
       <c r="D29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1663,14 +1665,14 @@
         <v>6771.6</v>
       </c>
       <c r="F29" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
         <v>44813</v>
       </c>
       <c r="G29" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G28), MONTH(G28), DAY(G28)+1)</f>
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F29&gt;=G29, 0, G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -1678,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H29&gt;0, H29*I29, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H29*I29</f>
         <v>180</v>
       </c>
       <c r="K29" s="2" t="n">
@@ -1692,14 +1694,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
         <v>56.5</v>
       </c>
       <c r="D30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E30" s="2" t="n">
@@ -1707,14 +1709,14 @@
         <v>6712.2</v>
       </c>
       <c r="F30" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
         <v>44813</v>
       </c>
       <c r="G30" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G29), MONTH(G29), DAY(G29)+1)</f>
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F30&gt;=G30, 0, G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -1722,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H30&gt;0, H30*I30, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H30*I30</f>
         <v>190</v>
       </c>
       <c r="K30" s="2" t="n">
@@ -1736,14 +1738,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
         <v>56</v>
       </c>
       <c r="D31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1751,14 +1753,14 @@
         <v>6652.8</v>
       </c>
       <c r="F31" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
         <v>44813</v>
       </c>
       <c r="G31" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G30), MONTH(G30), DAY(G30)+1)</f>
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F31&gt;=G31, 0, G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -1766,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H31&gt;0, H31*I31, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H31*I31</f>
         <v>200</v>
       </c>
       <c r="K31" s="2" t="n">
@@ -1780,14 +1782,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
         <v>55.5</v>
       </c>
       <c r="D32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E32" s="2" t="n">
@@ -1795,14 +1797,14 @@
         <v>6593.4</v>
       </c>
       <c r="F32" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
         <v>44813</v>
       </c>
       <c r="G32" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G31), MONTH(G31), DAY(G31)+1)</f>
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F32&gt;=G32, 0, G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -1810,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H32&gt;0, H32*I32, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H32*I32</f>
         <v>210</v>
       </c>
       <c r="K32" s="2" t="n">
@@ -1824,14 +1826,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
         <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E33" s="2" t="n">
@@ -1839,14 +1841,14 @@
         <v>6534</v>
       </c>
       <c r="F33" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
         <v>44813</v>
       </c>
       <c r="G33" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G32), MONTH(G32), DAY(G32)+1)</f>
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F33&gt;=G33, 0, G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -1854,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H33&gt;0, H33*I33, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H33*I33</f>
         <v>220</v>
       </c>
       <c r="K33" s="2" t="n">
@@ -1868,14 +1870,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
         <v>54.5</v>
       </c>
       <c r="D34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
         <v>118.8</v>
       </c>
       <c r="E34" s="2" t="n">
@@ -1883,14 +1885,14 @@
         <v>6474.6</v>
       </c>
       <c r="F34" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
         <v>44813</v>
       </c>
       <c r="G34" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G33), MONTH(G33), DAY(G33)+1)</f>
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F34&gt;=G34, 0, G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -1898,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H34&gt;0, H34*I34, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H34*I34</f>
         <v>230</v>
       </c>
       <c r="K34" s="2" t="n">
@@ -1912,14 +1914,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1927,14 +1929,14 @@
         <v>3207.6</v>
       </c>
       <c r="F35" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
         <v>44813</v>
       </c>
       <c r="G35" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G34), MONTH(G34), DAY(G34)+1)</f>
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F35&gt;=G35, 0, G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -1942,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H35&gt;0, H35*I35, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H35*I35</f>
         <v>240</v>
       </c>
       <c r="K35" s="2" t="n">
@@ -1956,14 +1958,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -1971,14 +1973,14 @@
         <v>3177.9</v>
       </c>
       <c r="F36" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
         <v>44813</v>
       </c>
       <c r="G36" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G35), MONTH(G35), DAY(G35)+1)</f>
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F36&gt;=G36, 0, G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -1986,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H36&gt;0, H36*I36, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H36*I36</f>
         <v>250</v>
       </c>
       <c r="K36" s="2" t="n">
@@ -2000,14 +2002,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2015,14 +2017,14 @@
         <v>3148.2</v>
       </c>
       <c r="F37" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
         <v>44813</v>
       </c>
       <c r="G37" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G36), MONTH(G36), DAY(G36)+1)</f>
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F37&gt;=G37, 0, G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -2030,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H37&gt;0, H37*I37, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H37*I37</f>
         <v>260</v>
       </c>
       <c r="K37" s="2" t="n">
@@ -2044,14 +2046,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2059,14 +2061,14 @@
         <v>3118.5</v>
       </c>
       <c r="F38" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
         <v>44813</v>
       </c>
       <c r="G38" s="3" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">DATE(YEAR(G37), MONTH(G37), DAY(G37)+1)</f>
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F38&gt;=G38, 0, G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">
@@ -2074,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(H38&gt;0, H38*I38, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H38*I38</f>
         <v>270</v>
       </c>
       <c r="K38" s="2" t="n">
@@ -2087,7 +2089,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="40">
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">INT(SUM(K3:K38))</f>
@@ -2096,7 +2098,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="41">
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
@@ -2105,7 +2107,7 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="42">
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
@@ -2114,11 +2116,11 @@
     </row>
     <row ht="15.75" outlineLevel="0" r="43">
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
-        <v>8316</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(J3, J38)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -515,7 +515,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1</f>
         <v>118.8</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -529,7 +529,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F3&lt;G3, G3-F3, 0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
@@ -557,7 +557,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
         <v>118.8</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -569,10 +569,11 @@
         <v>44813</v>
       </c>
       <c r="G4" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F4&gt;=G4, 0, G4-F4)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -601,7 +602,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4</f>
         <v>118.8</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -613,10 +614,11 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F5&gt;=G5, 0, G5-F5)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -645,7 +647,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
         <v>118.8</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -657,10 +659,11 @@
         <v>44813</v>
       </c>
       <c r="G6" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
       <c r="H6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F6&gt;=G6, 0, G6-F6)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F6&gt;G6, 0, G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -689,7 +692,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6</f>
         <v>118.8</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -701,10 +704,11 @@
         <v>44813</v>
       </c>
       <c r="G7" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
       <c r="H7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F7&gt;=G7, 0, G7-F7)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F7&gt;G7, 0, G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -733,7 +737,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7</f>
         <v>118.8</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -745,10 +749,11 @@
         <v>44813</v>
       </c>
       <c r="G8" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
       <c r="H8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F8&gt;=G8, 0, G8-F8)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F8&gt;G8, 0, G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -777,7 +782,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D8</f>
         <v>118.8</v>
       </c>
       <c r="E9" s="2" t="n">
@@ -789,10 +794,11 @@
         <v>44813</v>
       </c>
       <c r="G9" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
       <c r="H9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F9&gt;=G9, 0, G9-F9)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;F9, 0, G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -821,7 +827,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D9</f>
         <v>118.8</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -833,10 +839,11 @@
         <v>44813</v>
       </c>
       <c r="G10" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
       <c r="H10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F10&gt;=G10, 0, G10-F10)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;F10, 0, G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -865,7 +872,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D10</f>
         <v>118.8</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -877,10 +884,11 @@
         <v>44813</v>
       </c>
       <c r="G11" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
       <c r="H11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F11&gt;=G11, 0, G11-F11)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;F11, 0, G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -909,7 +917,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11</f>
         <v>118.8</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -921,10 +929,11 @@
         <v>44813</v>
       </c>
       <c r="G12" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
       <c r="H12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F12&gt;=G12, 0, G12-F12)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;F12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -953,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12</f>
         <v>118.8</v>
       </c>
       <c r="E13" s="2" t="n">
@@ -965,6 +974,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
       <c r="H13" s="2" t="n">
@@ -997,7 +1007,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D13</f>
         <v>118.8</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -1009,6 +1019,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
       <c r="H14" s="2" t="n">
@@ -1041,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D14</f>
         <v>118.8</v>
       </c>
       <c r="E15" s="2" t="n">
@@ -1053,6 +1064,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
       <c r="H15" s="2" t="n">
@@ -1085,7 +1097,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D15</f>
         <v>118.8</v>
       </c>
       <c r="E16" s="2" t="n">
@@ -1097,6 +1109,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
       <c r="H16" s="2" t="n">
@@ -1129,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D16</f>
         <v>118.8</v>
       </c>
       <c r="E17" s="2" t="n">
@@ -1141,6 +1154,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -1173,7 +1187,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D17</f>
         <v>118.8</v>
       </c>
       <c r="E18" s="2" t="n">
@@ -1185,6 +1199,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
       <c r="H18" s="2" t="n">
@@ -1217,7 +1232,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D18</f>
         <v>118.8</v>
       </c>
       <c r="E19" s="2" t="n">
@@ -1229,6 +1244,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
       <c r="H19" s="2" t="n">
@@ -1261,7 +1277,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D19</f>
         <v>118.8</v>
       </c>
       <c r="E20" s="2" t="n">
@@ -1273,6 +1289,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
       <c r="H20" s="2" t="n">
@@ -1305,7 +1322,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D20</f>
         <v>118.8</v>
       </c>
       <c r="E21" s="2" t="n">
@@ -1317,6 +1334,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
       <c r="H21" s="2" t="n">
@@ -1349,7 +1367,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D21</f>
         <v>118.8</v>
       </c>
       <c r="E22" s="2" t="n">
@@ -1361,6 +1379,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
       <c r="H22" s="2" t="n">
@@ -1393,7 +1412,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D22</f>
         <v>118.8</v>
       </c>
       <c r="E23" s="2" t="n">
@@ -1405,6 +1424,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
       <c r="H23" s="2" t="n">
@@ -1437,7 +1457,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D23</f>
         <v>118.8</v>
       </c>
       <c r="E24" s="2" t="n">
@@ -1449,6 +1469,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
       <c r="H24" s="2" t="n">
@@ -1481,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D24</f>
         <v>118.8</v>
       </c>
       <c r="E25" s="2" t="n">
@@ -1493,6 +1514,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
@@ -1525,7 +1547,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D25</f>
         <v>118.8</v>
       </c>
       <c r="E26" s="2" t="n">
@@ -1537,6 +1559,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
@@ -1569,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D26</f>
         <v>118.8</v>
       </c>
       <c r="E27" s="2" t="n">
@@ -1581,6 +1604,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
@@ -1613,7 +1637,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D27</f>
         <v>118.8</v>
       </c>
       <c r="E28" s="2" t="n">
@@ -1625,6 +1649,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
@@ -1657,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D28</f>
         <v>118.8</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1669,6 +1694,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
@@ -1701,7 +1727,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D29</f>
         <v>118.8</v>
       </c>
       <c r="E30" s="2" t="n">
@@ -1713,6 +1739,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
@@ -1745,7 +1772,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D30</f>
         <v>118.8</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1757,6 +1784,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
@@ -1789,7 +1817,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31</f>
         <v>118.8</v>
       </c>
       <c r="E32" s="2" t="n">
@@ -1801,6 +1829,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
@@ -1833,7 +1862,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D32</f>
         <v>118.8</v>
       </c>
       <c r="E33" s="2" t="n">
@@ -1845,6 +1874,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
@@ -1877,7 +1907,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
         <v>118.8</v>
       </c>
       <c r="E34" s="2" t="n">
@@ -1889,6 +1919,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
@@ -1921,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D34/2</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1933,6 +1964,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
@@ -1965,7 +1997,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D35</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -1977,6 +2009,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
@@ -2009,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D36</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2021,6 +2054,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
@@ -2053,7 +2087,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.55*108</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D37</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2065,6 +2099,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
@@ -2110,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">27</f>
         <v>27</v>
       </c>
     </row>
@@ -2119,8 +2154,8 @@
         <v>50</v>
       </c>
       <c r="C43" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(J3, J38)</f>
-        <v>270</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3, K38)</f>
+        <v>8316</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -162,7 +162,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -529,7 +529,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F3&lt;G3, G3-F3, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
@@ -573,7 +573,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -618,7 +618,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&lt;=F5, 0, G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -663,7 +663,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F6&gt;G6, 0, G6-F6)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&lt;=F6, 0, G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -708,7 +708,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F7&gt;G7, 0, G7-F7)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&lt;=F7, 0, G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -753,7 +753,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F8&gt;G8, 0, G8-F8)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&lt;=F8, 0, G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -798,7 +798,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;F9, 0, G9-F9)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;=F9, 0, G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -843,7 +843,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;F10, 0, G10-F10)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;=F10, 0, G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -888,7 +888,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;F11, 0, G11-F11)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;=F11, 0, G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -933,7 +933,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;F12, 0, G12-F12)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;=F12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -978,7 +978,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F13&gt;=G13, 0, G13-F13)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&lt;=F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -1023,7 +1023,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F14&gt;=G14, 0, G14-F14)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&lt;=F14, 0, G14-F14)</f>
         <v>3</v>
       </c>
       <c r="I14" s="4" t="n">
@@ -1068,7 +1068,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F15&gt;=G15, 0, G15-F15)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&lt;=F15, 0, G15-F15)</f>
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
@@ -1113,7 +1113,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F16&gt;=G16, 0, G16-F16)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&lt;=F16, 0, G16-F16)</f>
         <v>5</v>
       </c>
       <c r="I16" s="4" t="n">
@@ -1158,7 +1158,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F17&gt;=G17, 0, G17-F17)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&lt;=F17, 0, G17-F17)</f>
         <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
@@ -1203,7 +1203,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F18&gt;=G18, 0, G18-F18)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&lt;=F18, 0, G18-F18)</f>
         <v>7</v>
       </c>
       <c r="I18" s="4" t="n">
@@ -1248,7 +1248,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F19&gt;=G19, 0, G19-F19)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&lt;=F19, 0, G19-F19)</f>
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
@@ -1293,7 +1293,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F20&gt;=G20, 0, G20-F20)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&lt;=F20, 0, G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="4" t="n">
@@ -1338,7 +1338,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F21&gt;=G21, 0, G21-F21)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&lt;=F21, 0, G21-F21)</f>
         <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
@@ -1383,7 +1383,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F22&gt;=G22, 0, G22-F22)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&lt;=F22, 0, G22-F22)</f>
         <v>11</v>
       </c>
       <c r="I22" s="4" t="n">
@@ -1428,7 +1428,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F23&gt;=G23, 0, G23-F23)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&lt;=F23, 0, G23-F23)</f>
         <v>12</v>
       </c>
       <c r="I23" s="4" t="n">
@@ -1473,7 +1473,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F24&gt;=G24, 0, G24-F24)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&lt;=F24, 0, G24-F24)</f>
         <v>13</v>
       </c>
       <c r="I24" s="4" t="n">
@@ -1518,7 +1518,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F25&gt;=G25, 0, G25-F25)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -1563,7 +1563,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F26&gt;=G26, 0, G26-F26)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -1608,7 +1608,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F27&gt;=G27, 0, G27-F27)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -1653,7 +1653,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F28&gt;=G28, 0, G28-F28)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -1698,7 +1698,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F29&gt;=G29, 0, G29-F29)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -1743,7 +1743,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F30&gt;=G30, 0, G30-F30)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -1788,7 +1788,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F31&gt;=G31, 0, G31-F31)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -1833,7 +1833,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F32&gt;=G32, 0, G32-F32)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -1878,7 +1878,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F33&gt;=G33, 0, G33-F33)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -1923,7 +1923,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F34&gt;=G34, 0, G34-F34)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1/2</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1968,7 +1968,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F35&gt;=G35, 0, G35-F35)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -2013,7 +2013,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F36&gt;=G36, 0, G36-F36)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -2042,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D36</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*0.55</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2058,7 +2058,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F37&gt;=G37, 0, G37-F37)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -2103,7 +2103,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F38&gt;=G38, 0, G38-F38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A$1*0.55</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1997,7 +1997,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D35</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A$1*1.1/2</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -2042,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*0.55</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A$1*1.1/2</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2145,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">27</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3, H38)</f>
         <v>27</v>
       </c>
     </row>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -1518,7 +1518,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -1563,7 +1563,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G26, -F26)&lt;0, 0, SUM(G26, -F26))</f>
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -1608,7 +1608,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G27, -F27)&lt;0, 0, SUM(G27, -F27))</f>
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -1653,7 +1653,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G28, -F28)&lt;0, 0, SUM(G28, -F28))</f>
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -1698,7 +1698,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G29, -F29)&lt;0, 0, SUM(G29, -F29))</f>
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -1743,7 +1743,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G30, -F30)&lt;0, 0, SUM(G30, -F30))</f>
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -1788,7 +1788,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G31, -F31)&lt;0, 0, SUM(G31, -F31))</f>
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -1833,7 +1833,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G32, -F32)&lt;0, 0, SUM(G32, -F32))</f>
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -1878,7 +1878,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G33, -F33)&lt;0, 0, SUM(G33, -F33))</f>
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -1923,7 +1923,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G34, -F34)&lt;0, 0, SUM(G34, -F34))</f>
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -1968,7 +1968,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G35, -F35)&lt;0, 0, SUM(G35, -F35))</f>
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -2013,7 +2013,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G36, -F36)&lt;0, 0, SUM(G36, -F36))</f>
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -2058,7 +2058,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G37, -F37)&lt;0, 0, SUM(G37, -F37))</f>
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -2103,7 +2103,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G38, -F38)&lt;0, 0, SUM(G38, -F38))</f>
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A$1*0.55</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1997,7 +1997,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A$1*1.1/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -2042,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A$1*1.1/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2087,7 +2087,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D37</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2145,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3, H38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -162,7 +162,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1518,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -1563,7 +1563,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G26, -F26)&lt;0, 0, SUM(G26, -F26))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -1608,7 +1608,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G27, -F27)&lt;0, 0, SUM(G27, -F27))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -1653,7 +1653,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G28, -F28)&lt;0, 0, SUM(G28, -F28))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -1698,7 +1698,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G29, -F29)&lt;0, 0, SUM(G29, -F29))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -1743,7 +1743,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G30, -F30)&lt;0, 0, SUM(G30, -F30))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -1788,7 +1788,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G31, -F31)&lt;0, 0, SUM(G31, -F31))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -1833,7 +1833,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G32, -F32)&lt;0, 0, SUM(G32, -F32))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -1878,7 +1878,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G33, -F33)&lt;0, 0, SUM(G33, -F33))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -1923,7 +1923,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G34, -F34)&lt;0, 0, SUM(G34, -F34))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1/2</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1968,7 +1968,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G35, -F35)&lt;0, 0, SUM(G35, -F35))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -1997,7 +1997,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D35</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -2013,7 +2013,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G36, -F36)&lt;0, 0, SUM(G36, -F36))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -2042,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D36</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2058,7 +2058,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G37, -F37)&lt;0, 0, SUM(G37, -F37))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -2087,7 +2087,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$3/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D37</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2103,7 +2103,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(SUM(G38, -F38)&lt;0, 0, SUM(G38, -F38))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">
@@ -2154,7 +2154,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3, K38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>8316</v>
       </c>
     </row>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -147,10 +147,10 @@
     <t>Шаймарданова</t>
   </si>
   <si>
+    <t>Кузин</t>
+  </si>
+  <si>
     <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
   </si>
   <si>
     <t>Общая сумма, руб.</t>
@@ -515,7 +515,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -529,7 +529,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
@@ -557,7 +557,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -573,7 +573,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F4&gt;=G4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -602,7 +602,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -618,7 +618,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&lt;=F5, 0, G5-F5)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F5&gt;=G5, 0, G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -647,7 +647,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -663,7 +663,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&lt;=F6, 0, G6-F6)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F6&gt;=G6, 0, G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -692,7 +692,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -708,7 +708,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&lt;=F7, 0, G7-F7)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F7&gt;=G7, 0, G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -737,7 +737,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -753,7 +753,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&lt;=F8, 0, G8-F8)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F8&gt;=G8, 0, G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -782,7 +782,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D8</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E9" s="2" t="n">
@@ -798,7 +798,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&lt;=F9, 0, G9-F9)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F9&gt;=G9, 0, G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -827,7 +827,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D9</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -843,7 +843,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&lt;=F10, 0, G10-F10)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F10&gt;=G10, 0, G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -872,7 +872,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D10</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -888,7 +888,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&lt;=F11, 0, G11-F11)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F11&gt;=G11, 0, G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -917,7 +917,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -933,7 +933,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&lt;=F12, 0, G12-F12)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F12&gt;=G12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E13" s="2" t="n">
@@ -978,7 +978,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&lt;=F13, 0, G13-F13)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F13&gt;=G13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -1007,7 +1007,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D13</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -1023,7 +1023,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&lt;=F14, 0, G14-F14)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F14&gt;=G14, 0, G14-F14)</f>
         <v>3</v>
       </c>
       <c r="I14" s="4" t="n">
@@ -1052,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D14</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E15" s="2" t="n">
@@ -1068,7 +1068,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&lt;=F15, 0, G15-F15)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F15&gt;=G15, 0, G15-F15)</f>
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
@@ -1097,7 +1097,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D15</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E16" s="2" t="n">
@@ -1113,7 +1113,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&lt;=F16, 0, G16-F16)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F16&gt;=G16, 0, G16-F16)</f>
         <v>5</v>
       </c>
       <c r="I16" s="4" t="n">
@@ -1142,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D16</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E17" s="2" t="n">
@@ -1158,7 +1158,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&lt;=F17, 0, G17-F17)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F17&gt;=G17, 0, G17-F17)</f>
         <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
@@ -1187,7 +1187,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D17</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E18" s="2" t="n">
@@ -1203,7 +1203,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&lt;=F18, 0, G18-F18)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F18&gt;=G18, 0, G18-F18)</f>
         <v>7</v>
       </c>
       <c r="I18" s="4" t="n">
@@ -1232,7 +1232,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D18</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E19" s="2" t="n">
@@ -1248,7 +1248,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&lt;=F19, 0, G19-F19)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F19&gt;=G19, 0, G19-F19)</f>
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
@@ -1277,7 +1277,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D19</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E20" s="2" t="n">
@@ -1293,7 +1293,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&lt;=F20, 0, G20-F20)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F20&gt;=G20, 0, G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="4" t="n">
@@ -1322,7 +1322,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D20</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E21" s="2" t="n">
@@ -1338,7 +1338,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&lt;=F21, 0, G21-F21)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F21&gt;=G21, 0, G21-F21)</f>
         <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
@@ -1367,7 +1367,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D21</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E22" s="2" t="n">
@@ -1383,7 +1383,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&lt;=F22, 0, G22-F22)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F22&gt;=G22, 0, G22-F22)</f>
         <v>11</v>
       </c>
       <c r="I22" s="4" t="n">
@@ -1412,7 +1412,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D22</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E23" s="2" t="n">
@@ -1428,7 +1428,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&lt;=F23, 0, G23-F23)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F23&gt;=G23, 0, G23-F23)</f>
         <v>12</v>
       </c>
       <c r="I23" s="4" t="n">
@@ -1457,7 +1457,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D23</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E24" s="2" t="n">
@@ -1473,7 +1473,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&lt;=F24, 0, G24-F24)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F24&gt;=G24, 0, G24-F24)</f>
         <v>13</v>
       </c>
       <c r="I24" s="4" t="n">
@@ -1502,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D24</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E25" s="2" t="n">
@@ -1518,7 +1518,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&lt;=F25, 0, G25-F25)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F25&gt;=G25, 0, G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -1547,7 +1547,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D25</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E26" s="2" t="n">
@@ -1563,7 +1563,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&lt;=F26, 0, G26-F26)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F26&gt;=G26, 0, G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -1592,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D26</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E27" s="2" t="n">
@@ -1608,7 +1608,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&lt;=F27, 0, G27-F27)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F27&gt;=G27, 0, G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -1637,7 +1637,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D27</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E28" s="2" t="n">
@@ -1653,7 +1653,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&lt;=F28, 0, G28-F28)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F28&gt;=G28, 0, G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -1682,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D28</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1698,7 +1698,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&lt;=F29, 0, G29-F29)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F29&gt;=G29, 0, G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -1727,7 +1727,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D29</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E30" s="2" t="n">
@@ -1743,7 +1743,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&lt;=F30, 0, G30-F30)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F30&gt;=G30, 0, G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -1772,7 +1772,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D30</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1788,7 +1788,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&lt;=F31, 0, G31-F31)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F31&gt;=G31, 0, G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -1817,7 +1817,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E32" s="2" t="n">
@@ -1833,7 +1833,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&lt;=F32, 0, G32-F32)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F32&gt;=G32, 0, G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -1862,7 +1862,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D32</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E33" s="2" t="n">
@@ -1878,7 +1878,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&lt;=F33, 0, G33-F33)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F33&gt;=G33, 0, G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -1907,7 +1907,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
         <v>118.8</v>
       </c>
       <c r="E34" s="2" t="n">
@@ -1923,7 +1923,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&lt;=F34, 0, G34-F34)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F34&gt;=G34, 0, G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1968,7 +1968,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&lt;=F35, 0, G35-F35)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F35&gt;=G35, 0, G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -1997,7 +1997,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D35</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -2013,7 +2013,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&lt;=F36, 0, G36-F36)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F36&gt;=G36, 0, G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -2042,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D36</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2058,7 +2058,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&lt;=F37, 0, G37-F37)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F37&gt;=G37, 0, G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -2087,7 +2087,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D37</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2103,7 +2103,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&lt;=F38, 0, G38-F38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F38&gt;=G38, 0, G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">
@@ -2154,7 +2154,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3, K38)</f>
         <v>8316</v>
       </c>
     </row>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -515,7 +515,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1</f>
         <v>118.8</v>
       </c>
       <c r="E3" s="2" t="n">
@@ -529,7 +529,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
@@ -557,7 +557,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
         <v>118.8</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -573,7 +573,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F4&gt;=G4, 0, G4-F4)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -602,7 +602,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4</f>
         <v>118.8</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -618,7 +618,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F5&gt;=G5, 0, G5-F5)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -647,7 +647,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
         <v>118.8</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -663,7 +663,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F6&gt;=G6, 0, G6-F6)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -692,7 +692,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6</f>
         <v>118.8</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -708,7 +708,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F7&gt;=G7, 0, G7-F7)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -737,7 +737,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7</f>
         <v>118.8</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -753,7 +753,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F8&gt;=G8, 0, G8-F8)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -782,7 +782,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D8</f>
         <v>118.8</v>
       </c>
       <c r="E9" s="2" t="n">
@@ -798,7 +798,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F9&gt;=G9, 0, G9-F9)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -827,7 +827,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D9</f>
         <v>118.8</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -843,7 +843,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F10&gt;=G10, 0, G10-F10)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -872,7 +872,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D10</f>
         <v>118.8</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -888,7 +888,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F11&gt;=G11, 0, G11-F11)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -917,7 +917,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11</f>
         <v>118.8</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -933,7 +933,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F12&gt;=G12, 0, G12-F12)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12</f>
         <v>118.8</v>
       </c>
       <c r="E13" s="2" t="n">
@@ -978,7 +978,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F13&gt;=G13, 0, G13-F13)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -1007,7 +1007,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D13</f>
         <v>118.8</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -1023,7 +1023,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F14&gt;=G14, 0, G14-F14)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
         <v>3</v>
       </c>
       <c r="I14" s="4" t="n">
@@ -1052,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D14</f>
         <v>118.8</v>
       </c>
       <c r="E15" s="2" t="n">
@@ -1068,7 +1068,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F15&gt;=G15, 0, G15-F15)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
         <v>4</v>
       </c>
       <c r="I15" s="4" t="n">
@@ -1097,7 +1097,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D15</f>
         <v>118.8</v>
       </c>
       <c r="E16" s="2" t="n">
@@ -1113,7 +1113,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F16&gt;=G16, 0, G16-F16)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
         <v>5</v>
       </c>
       <c r="I16" s="4" t="n">
@@ -1142,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D16</f>
         <v>118.8</v>
       </c>
       <c r="E17" s="2" t="n">
@@ -1158,7 +1158,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F17&gt;=G17, 0, G17-F17)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
         <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
@@ -1187,7 +1187,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D17</f>
         <v>118.8</v>
       </c>
       <c r="E18" s="2" t="n">
@@ -1203,7 +1203,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F18&gt;=G18, 0, G18-F18)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
         <v>7</v>
       </c>
       <c r="I18" s="4" t="n">
@@ -1232,7 +1232,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D18</f>
         <v>118.8</v>
       </c>
       <c r="E19" s="2" t="n">
@@ -1248,7 +1248,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F19&gt;=G19, 0, G19-F19)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
         <v>8</v>
       </c>
       <c r="I19" s="4" t="n">
@@ -1277,7 +1277,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D19</f>
         <v>118.8</v>
       </c>
       <c r="E20" s="2" t="n">
@@ -1293,7 +1293,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F20&gt;=G20, 0, G20-F20)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
         <v>9</v>
       </c>
       <c r="I20" s="4" t="n">
@@ -1322,7 +1322,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D20</f>
         <v>118.8</v>
       </c>
       <c r="E21" s="2" t="n">
@@ -1338,7 +1338,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F21&gt;=G21, 0, G21-F21)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
         <v>10</v>
       </c>
       <c r="I21" s="4" t="n">
@@ -1367,7 +1367,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D21</f>
         <v>118.8</v>
       </c>
       <c r="E22" s="2" t="n">
@@ -1383,7 +1383,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F22&gt;=G22, 0, G22-F22)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
         <v>11</v>
       </c>
       <c r="I22" s="4" t="n">
@@ -1412,7 +1412,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D22</f>
         <v>118.8</v>
       </c>
       <c r="E23" s="2" t="n">
@@ -1428,7 +1428,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F23&gt;=G23, 0, G23-F23)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
         <v>12</v>
       </c>
       <c r="I23" s="4" t="n">
@@ -1457,7 +1457,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D23</f>
         <v>118.8</v>
       </c>
       <c r="E24" s="2" t="n">
@@ -1473,7 +1473,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F24&gt;=G24, 0, G24-F24)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
         <v>13</v>
       </c>
       <c r="I24" s="4" t="n">
@@ -1502,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D24</f>
         <v>118.8</v>
       </c>
       <c r="E25" s="2" t="n">
@@ -1518,7 +1518,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F25&gt;=G25, 0, G25-F25)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
         <v>14</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -1547,7 +1547,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D25</f>
         <v>118.8</v>
       </c>
       <c r="E26" s="2" t="n">
@@ -1563,7 +1563,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F26&gt;=G26, 0, G26-F26)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
         <v>15</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -1592,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D26</f>
         <v>118.8</v>
       </c>
       <c r="E27" s="2" t="n">
@@ -1608,7 +1608,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F27&gt;=G27, 0, G27-F27)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
         <v>16</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -1637,7 +1637,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D27</f>
         <v>118.8</v>
       </c>
       <c r="E28" s="2" t="n">
@@ -1653,7 +1653,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F28&gt;=G28, 0, G28-F28)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
         <v>17</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -1682,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D28</f>
         <v>118.8</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1698,7 +1698,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F29&gt;=G29, 0, G29-F29)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
         <v>18</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -1727,7 +1727,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D29</f>
         <v>118.8</v>
       </c>
       <c r="E30" s="2" t="n">
@@ -1743,7 +1743,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F30&gt;=G30, 0, G30-F30)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
         <v>19</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -1772,7 +1772,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D30</f>
         <v>118.8</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1788,7 +1788,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F31&gt;=G31, 0, G31-F31)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
         <v>20</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -1817,7 +1817,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31</f>
         <v>118.8</v>
       </c>
       <c r="E32" s="2" t="n">
@@ -1833,7 +1833,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F32&gt;=G32, 0, G32-F32)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
         <v>21</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -1862,7 +1862,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D32</f>
         <v>118.8</v>
       </c>
       <c r="E33" s="2" t="n">
@@ -1878,7 +1878,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F33&gt;=G33, 0, G33-F33)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
         <v>22</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -1907,7 +1907,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.1*$A$1</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
         <v>118.8</v>
       </c>
       <c r="E34" s="2" t="n">
@@ -1923,7 +1923,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F34&gt;=G34, 0, G34-F34)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
         <v>23</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -1952,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
       <c r="E35" s="2" t="n">
@@ -1968,7 +1968,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F35&gt;=G35, 0, G35-F35)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
         <v>24</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -1997,7 +1997,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
       <c r="E36" s="2" t="n">
@@ -2013,7 +2013,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F36&gt;=G36, 0, G36-F36)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
         <v>25</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -2042,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
       <c r="E37" s="2" t="n">
@@ -2058,7 +2058,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F37&gt;=G37, 0, G37-F37)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
         <v>26</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -2087,7 +2087,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$D$34/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
       <c r="E38" s="2" t="n">
@@ -2103,7 +2103,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(F38&gt;=G38, 0, G38-F38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
         <v>27</v>
       </c>
       <c r="I38" s="4" t="n">
@@ -2127,7 +2127,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="2" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">INT(SUM(K3:K38))</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
         <v>253081</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3, K38)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>8316</v>
       </c>
     </row>

--- a/LR3/table_1_108.xlsx
+++ b/LR3/table_1_108.xlsx
@@ -214,11 +214,8 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,7 +225,7 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -241,9 +238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -257,7 +254,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -269,7 +266,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -281,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -293,7 +290,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,1712 +448,1768 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="15" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="13.9999996616676"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" style="1" width="38.5703116396314"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" style="1" width="14.7109374563868"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" style="1" width="9.14062530925693"/>
-    <col customWidth="true" max="5" min="5" outlineLevel="0" style="1" width="16.9999994925015"/>
-    <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="19.710937625553"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="19.4257816365712"/>
-    <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="18.0000003383324"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" style="1" width="14.2851556506495"/>
-    <col customWidth="true" max="10" min="10" outlineLevel="0" style="1" width="12.2851566656466"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="10.9999998308338"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" outlineLevel="0" width="13.1406246325922"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" outlineLevel="0" width="38.5703116396314"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" outlineLevel="0" width="15.5703124854623"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" outlineLevel="0" width="17.5703128237946"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" outlineLevel="0" width="12.4257811290726"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" outlineLevel="0" width="13.7109379638854"/>
+    <col bestFit="true" customWidth="true" max="7" min="7" outlineLevel="0" width="13.4257806215741"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" outlineLevel="0" width="17.4257812982388"/>
+    <col bestFit="true" customWidth="true" max="9" min="9" outlineLevel="0" width="20.5703126546285"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" outlineLevel="0" width="12.5703126546285"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" outlineLevel="0" width="11.710937625553"/>
   </cols>
   <sheetData>
     <row ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A1*1.1</f>
         <v>118.8</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3*D3</f>
         <v>8316</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3" t="n">
+      <c r="F3" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="I3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E3+J3</f>
         <v>8316</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
         <v>118.8</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*D4</f>
         <v>8256.6</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E4+J4</f>
         <v>8256.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4</f>
         <v>118.8</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5*D5</f>
         <v>8197.2</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E5+J5</f>
         <v>8197.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
         <v>118.8</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6*D6</f>
         <v>8137.8</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
         <v>44813</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5</f>
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H6*I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E6+J6</f>
         <v>8137.8</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6-0.5</f>
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6</f>
         <v>118.8</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7*D7</f>
         <v>8078.4</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
         <v>44813</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6</f>
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H7*I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E7+J7</f>
         <v>8078.4</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7-0.5</f>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7</f>
         <v>118.8</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8*D8</f>
         <v>8019</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
         <v>44813</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7</f>
         <v>10</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*I8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E8+J8</f>
         <v>8019</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8-0.5</f>
         <v>67</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D8</f>
         <v>118.8</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9*D9</f>
         <v>7959.6</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
         <v>44813</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8</f>
         <v>10</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H9*I9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E9+J9</f>
         <v>7959.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9-0.5</f>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D9</f>
         <v>118.8</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10*D10</f>
         <v>7900.2</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
         <v>44813</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9</f>
         <v>10</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*I10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E10+J10</f>
         <v>7900.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10-0.5</f>
         <v>66</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D10</f>
         <v>118.8</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11*D11</f>
         <v>7840.8</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
         <v>44813</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10</f>
         <v>10</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*I11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E11+J11</f>
         <v>7840.8</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11-0.5</f>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11</f>
         <v>118.8</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12*D12</f>
         <v>7781.4</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
         <v>44813</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11</f>
         <v>10</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*I12</f>
         <v>10</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12+J12</f>
         <v>7791.4</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12-0.5</f>
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12</f>
         <v>118.8</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13*D13</f>
         <v>7722</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
         <v>44813</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12</f>
         <v>10</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*I13</f>
         <v>20</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E13+J13</f>
         <v>7742</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13-0.5</f>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D13</f>
         <v>118.8</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14*D14</f>
         <v>7662.6</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
         <v>44813</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13</f>
         <v>10</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H14*I14</f>
         <v>30</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E14+J14</f>
         <v>7692.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D14</f>
         <v>118.8</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15*D15</f>
         <v>7603.2</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
         <v>44813</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14</f>
         <v>10</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*I15</f>
         <v>40</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E15+J15</f>
         <v>7643.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D15</f>
         <v>118.8</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16*D16</f>
         <v>7543.8</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
         <v>44813</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15</f>
         <v>10</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E16+J16</f>
         <v>7593.8</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D16</f>
         <v>118.8</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17*D17</f>
         <v>7484.4</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
         <v>44813</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16</f>
         <v>10</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*I17</f>
         <v>60</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E17+J17</f>
         <v>7544.4</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D17</f>
         <v>118.8</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18*D18</f>
         <v>7425</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
         <v>44813</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*I18</f>
         <v>70</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E18+J18</f>
         <v>7495</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
         <v>62</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D18</f>
         <v>118.8</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19*D19</f>
         <v>7365.6</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
         <v>44813</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18</f>
         <v>10</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*I19</f>
         <v>80</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E19+J19</f>
         <v>7445.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D19</f>
         <v>118.8</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20*D20</f>
         <v>7306.2</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
         <v>44813</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19</f>
         <v>10</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H20*I20</f>
         <v>90</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E20+J20</f>
         <v>7396.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D20</f>
         <v>118.8</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21*D21</f>
         <v>7246.8</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
         <v>44813</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
         <v>10</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H21*I21</f>
         <v>100</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E21+J21</f>
         <v>7346.8</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D21</f>
         <v>118.8</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22*D22</f>
         <v>7187.4</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
         <v>44813</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21</f>
         <v>10</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H22*I22</f>
         <v>110</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E22+J22</f>
         <v>7297.4</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
         <v>60</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D22</f>
         <v>118.8</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23*D23</f>
         <v>7128</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
         <v>44813</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22</f>
         <v>10</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*I23</f>
         <v>120</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E23+J23</f>
         <v>7248</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D23</f>
         <v>118.8</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24*D24</f>
         <v>7068.6</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
         <v>44813</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23</f>
         <v>10</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*I24</f>
         <v>130</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E24+J24</f>
         <v>7198.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
         <v>59</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D24</f>
         <v>118.8</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25*D25</f>
         <v>7009.2</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
         <v>44813</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24</f>
         <v>10</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H25*I25</f>
         <v>140</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E25+J25</f>
         <v>7149.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D25</f>
         <v>118.8</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26*D26</f>
         <v>6949.8</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
         <v>44813</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25</f>
         <v>10</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E26+J26</f>
         <v>7099.8</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D26</f>
         <v>118.8</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27*D27</f>
         <v>6890.4</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
         <v>44813</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26</f>
         <v>10</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H27*I27</f>
         <v>160</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E27+J27</f>
         <v>7050.4</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D27</f>
         <v>118.8</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28*D28</f>
         <v>6831</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
         <v>44813</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27</f>
         <v>10</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H28*I28</f>
         <v>170</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E28+J28</f>
         <v>7001</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D28</f>
         <v>118.8</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29*D29</f>
         <v>6771.6</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
         <v>44813</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28</f>
         <v>10</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H29*I29</f>
         <v>180</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E29+J29</f>
         <v>6951.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D29</f>
         <v>118.8</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30*D30</f>
         <v>6712.2</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
         <v>44813</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29</f>
         <v>10</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H30*I30</f>
         <v>190</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E30+J30</f>
         <v>6902.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
         <v>56</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D30</f>
         <v>118.8</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31*D31</f>
         <v>6652.8</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
         <v>44813</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30</f>
         <v>10</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H31*I31</f>
         <v>200</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E31+J31</f>
         <v>6852.8</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31</f>
         <v>118.8</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32*D32</f>
         <v>6593.4</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
         <v>44813</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31</f>
         <v>10</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H32*I32</f>
         <v>210</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E32+J32</f>
         <v>6803.4</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
         <v>55</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D32</f>
         <v>118.8</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33*D33</f>
         <v>6534</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
         <v>44813</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
         <v>22</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32</f>
         <v>10</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H33*I33</f>
         <v>220</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E33+J33</f>
         <v>6754</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
         <v>118.8</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
         <v>6474.6</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
         <v>44813</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33</f>
         <v>10</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H34*I34</f>
         <v>230</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E34+J34</f>
         <v>6704.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
         <v>54</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35*D35</f>
         <v>3207.6</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
         <v>44813</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="4" t="n">
+      <c r="I35" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34</f>
         <v>10</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H35*I35</f>
         <v>240</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E35+J35</f>
         <v>3447.6</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36*D36</f>
         <v>3177.9</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
         <v>44813</v>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="4" t="n">
+      <c r="I36" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35</f>
         <v>10</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H36*I36</f>
         <v>250</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E36+J36</f>
         <v>3427.9</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
         <v>53</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37*D37</f>
         <v>3148.2</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
         <v>44813</v>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="I37" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36</f>
         <v>10</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H37*I37</f>
         <v>260</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E37+J37</f>
         <v>3408.2</v>
       </c>
     </row>
     <row ht="15.75" outlineLevel="0" r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>59.4</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C38*D38</f>
         <v>3118.5</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="2" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="I38" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37</f>
         <v>10</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H38*I38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E38+J38</f>
         <v>3388.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="I39" s="5" t="n"/>
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="40">
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
         <v>253081</v>
       </c>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="41">
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="42">
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
         <v>27</v>
       </c>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="43">
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>8316</v>
       </c>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
